--- a/Code/Results/Cases/Case_6_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_9/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.21493848166733</v>
+        <v>21.58860960430498</v>
       </c>
       <c r="C2">
-        <v>13.63750164155477</v>
+        <v>11.00764720677882</v>
       </c>
       <c r="D2">
-        <v>2.638621049073318</v>
+        <v>4.902213275623616</v>
       </c>
       <c r="E2">
-        <v>6.116643979007712</v>
+        <v>7.263212649556887</v>
       </c>
       <c r="F2">
-        <v>36.87090400881428</v>
+        <v>24.69021987757133</v>
       </c>
       <c r="G2">
-        <v>2.116399935911915</v>
+        <v>2.095107075771975</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.689249178418267</v>
+        <v>5.630538703384827</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.685274850200146</v>
+        <v>7.360142882035873</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.5537340049402</v>
+        <v>12.47983367167985</v>
       </c>
       <c r="O2">
-        <v>27.83367770875894</v>
+        <v>18.29453460935137</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.67906022973484</v>
+        <v>20.23602117638054</v>
       </c>
       <c r="C3">
-        <v>12.68613301598508</v>
+        <v>10.48001619228208</v>
       </c>
       <c r="D3">
-        <v>2.595682806947696</v>
+        <v>4.819415569953297</v>
       </c>
       <c r="E3">
-        <v>6.146267767851434</v>
+        <v>7.29119695369321</v>
       </c>
       <c r="F3">
-        <v>35.92643610275277</v>
+        <v>24.27911528151773</v>
       </c>
       <c r="G3">
-        <v>2.126686784213771</v>
+        <v>2.100959973866042</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.746049034567072</v>
+        <v>5.688041194526206</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.505866133554156</v>
+        <v>7.164175896968058</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.83556302107969</v>
+        <v>12.64841082883484</v>
       </c>
       <c r="O3">
-        <v>27.20265323723277</v>
+        <v>18.0998163598599</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.70474248518254</v>
+        <v>19.3634345143338</v>
       </c>
       <c r="C4">
-        <v>12.07111466515492</v>
+        <v>10.14183831447969</v>
       </c>
       <c r="D4">
-        <v>2.569594172871267</v>
+        <v>4.769411320829384</v>
       </c>
       <c r="E4">
-        <v>6.165883461623983</v>
+        <v>7.31132331757711</v>
       </c>
       <c r="F4">
-        <v>35.37235111650902</v>
+        <v>24.04560723509457</v>
       </c>
       <c r="G4">
-        <v>2.13315861174168</v>
+        <v>2.104667607281979</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.782074359788314</v>
+        <v>5.724619583077707</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.397912125357732</v>
+        <v>7.043755259123742</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.01129561498308</v>
+        <v>12.75532774451504</v>
       </c>
       <c r="O4">
-        <v>26.83700383779649</v>
+        <v>17.9959375530105</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.30014292221786</v>
+        <v>18.99740969540113</v>
       </c>
       <c r="C5">
-        <v>11.81262373457689</v>
+        <v>10.0005530392647</v>
       </c>
       <c r="D5">
-        <v>2.559015555353135</v>
+        <v>4.749262888497754</v>
       </c>
       <c r="E5">
-        <v>6.174232191250298</v>
+        <v>7.320249960033881</v>
       </c>
       <c r="F5">
-        <v>35.15305240273759</v>
+        <v>23.95518363927498</v>
       </c>
       <c r="G5">
-        <v>2.135837285283717</v>
+        <v>2.106207835583928</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.797050119387291</v>
+        <v>5.739848301258954</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.354506516903489</v>
+        <v>6.994721767763553</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.08363593636942</v>
+        <v>12.79975664090361</v>
       </c>
       <c r="O5">
-        <v>26.69341490576458</v>
+        <v>17.95745878219527</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.23251386338542</v>
+        <v>18.93600627916125</v>
       </c>
       <c r="C6">
-        <v>11.76922354271998</v>
+        <v>9.97688609421937</v>
       </c>
       <c r="D6">
-        <v>2.55726171208861</v>
+        <v>4.745931622794488</v>
       </c>
       <c r="E6">
-        <v>6.175639846750252</v>
+        <v>7.321775571468851</v>
       </c>
       <c r="F6">
-        <v>35.11703024678555</v>
+        <v>23.94045374546548</v>
       </c>
       <c r="G6">
-        <v>2.136284636145002</v>
+        <v>2.106465380808259</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.799554828584954</v>
+        <v>5.742396596583503</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.347335443140575</v>
+        <v>6.986584042307515</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.09569341076738</v>
+        <v>12.80718600123936</v>
       </c>
       <c r="O6">
-        <v>26.66989708908917</v>
+        <v>17.95129927871823</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.69931603751496</v>
+        <v>19.35854021441931</v>
       </c>
       <c r="C7">
-        <v>12.0676605465132</v>
+        <v>10.13994681826608</v>
       </c>
       <c r="D7">
-        <v>2.569451313303907</v>
+        <v>4.769138640971365</v>
       </c>
       <c r="E7">
-        <v>6.165994621816103</v>
+        <v>7.311440789801636</v>
       </c>
       <c r="F7">
-        <v>35.36936727955005</v>
+        <v>24.04436862941016</v>
       </c>
       <c r="G7">
-        <v>2.133194567031459</v>
+        <v>2.104688259662449</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.782275125366821</v>
+        <v>5.72482365226572</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.397324323581163</v>
+        <v>7.043093733344172</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.01226820841589</v>
+        <v>12.75592344537429</v>
       </c>
       <c r="O7">
-        <v>26.83504551095445</v>
+        <v>17.9954031416579</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.69201804843129</v>
+        <v>21.13104668848849</v>
       </c>
       <c r="C8">
-        <v>13.3158141148694</v>
+        <v>10.82872251178456</v>
       </c>
       <c r="D8">
-        <v>2.623748234282288</v>
+        <v>4.873502980115779</v>
       </c>
       <c r="E8">
-        <v>6.126559919817865</v>
+        <v>7.272241299408143</v>
       </c>
       <c r="F8">
-        <v>36.53989430437877</v>
+        <v>24.5445368397643</v>
       </c>
       <c r="G8">
-        <v>2.119915914997907</v>
+        <v>2.097101933779193</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.708598779415976</v>
+        <v>5.650103436993337</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.622976262331639</v>
+        <v>7.292630279713381</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.65038287164924</v>
+        <v>12.53725231408316</v>
       </c>
       <c r="O8">
-        <v>27.61153750946361</v>
+        <v>18.22409059868133</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.34238509623379</v>
+        <v>24.2687179701115</v>
       </c>
       <c r="C9">
-        <v>15.52342425792106</v>
+        <v>12.06326541672488</v>
       </c>
       <c r="D9">
-        <v>2.733254596904822</v>
+        <v>5.083947943349741</v>
       </c>
       <c r="E9">
-        <v>6.060729750718046</v>
+        <v>7.21943919175957</v>
       </c>
       <c r="F9">
-        <v>39.04031505904088</v>
+        <v>25.67575769523435</v>
       </c>
       <c r="G9">
-        <v>2.095002633336221</v>
+        <v>2.083096235014802</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.572957693812584</v>
+        <v>5.513529967631326</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.08166981229693</v>
+        <v>7.778615889020804</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.95954048579874</v>
+        <v>12.13544286115999</v>
       </c>
       <c r="O9">
-        <v>29.31010762376976</v>
+        <v>18.80046765501329</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.86094572006274</v>
+        <v>26.46740749950774</v>
       </c>
       <c r="C10">
-        <v>17.00650758968981</v>
+        <v>12.89607162995809</v>
       </c>
       <c r="D10">
-        <v>2.816896529418301</v>
+        <v>5.241009213457272</v>
       </c>
       <c r="E10">
-        <v>6.019668147110167</v>
+        <v>7.196332224690434</v>
       </c>
       <c r="F10">
-        <v>41.00387749221044</v>
+        <v>26.59829918293178</v>
       </c>
       <c r="G10">
-        <v>2.077217598698542</v>
+        <v>2.073288595417664</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.478264037129612</v>
+        <v>5.419062734511206</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.427103616511518</v>
+        <v>8.130455356764028</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.45966031805587</v>
+        <v>11.85669294936892</v>
       </c>
       <c r="O10">
-        <v>30.66977672119331</v>
+        <v>19.30606433018976</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.97130946810606</v>
+        <v>27.41891277714938</v>
       </c>
       <c r="C11">
-        <v>17.65288550041313</v>
+        <v>13.25837761872623</v>
       </c>
       <c r="D11">
-        <v>2.855991708135761</v>
+        <v>5.312776562459487</v>
       </c>
       <c r="E11">
-        <v>6.002652556727348</v>
+        <v>7.189457363560421</v>
       </c>
       <c r="F11">
-        <v>41.92554349495122</v>
+        <v>27.0376378348475</v>
       </c>
       <c r="G11">
-        <v>2.06919705189876</v>
+        <v>2.068920067747583</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.436161259058511</v>
+        <v>5.377320297176134</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.585884608974878</v>
+        <v>8.288809033838698</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.2330023893785</v>
+        <v>11.73348465660241</v>
       </c>
       <c r="O11">
-        <v>31.31387819473861</v>
+        <v>19.55462230734963</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.40762357245112</v>
+        <v>27.77185332109626</v>
       </c>
       <c r="C12">
-        <v>17.89375384767342</v>
+        <v>13.39317208311951</v>
       </c>
       <c r="D12">
-        <v>2.870980811349935</v>
+        <v>5.339982162109445</v>
       </c>
       <c r="E12">
-        <v>5.996456256652208</v>
+        <v>7.187396922179692</v>
       </c>
       <c r="F12">
-        <v>42.27877463694687</v>
+        <v>27.20680927701741</v>
       </c>
       <c r="G12">
-        <v>2.066165946886354</v>
+        <v>2.067278179419252</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.420349033403669</v>
+        <v>5.361687236506732</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.646239193686776</v>
+        <v>8.348487867045721</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.14719660517224</v>
+        <v>11.6873513428163</v>
       </c>
       <c r="O12">
-        <v>31.56160189647338</v>
+        <v>19.65146190400436</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.31230948251732</v>
+        <v>27.69616781971789</v>
       </c>
       <c r="C13">
-        <v>17.84204919736379</v>
+        <v>13.36424883747175</v>
       </c>
       <c r="D13">
-        <v>2.867743832003073</v>
+        <v>5.334121924009485</v>
       </c>
       <c r="E13">
-        <v>5.997779610341206</v>
+        <v>7.187816202123829</v>
       </c>
       <c r="F13">
-        <v>42.2025098018712</v>
+        <v>27.17025087834636</v>
       </c>
       <c r="G13">
-        <v>2.066818546311005</v>
+        <v>2.067631255556365</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.423748793341714</v>
+        <v>5.365046411934501</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.633230672589006</v>
+        <v>8.335648302851773</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.16567669283263</v>
+        <v>11.69726360111794</v>
       </c>
       <c r="O13">
-        <v>31.50807781119815</v>
+        <v>19.63048425915501</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.0055901074517</v>
+        <v>27.44809669127396</v>
       </c>
       <c r="C14">
-        <v>17.67277904973184</v>
+        <v>13.26951550320624</v>
       </c>
       <c r="D14">
-        <v>2.857220957512914</v>
+        <v>5.315014298333711</v>
       </c>
       <c r="E14">
-        <v>6.002137780802491</v>
+        <v>7.189276851671729</v>
       </c>
       <c r="F14">
-        <v>41.95451859174837</v>
+        <v>27.05149962452887</v>
       </c>
       <c r="G14">
-        <v>2.068947583129228</v>
+        <v>2.068784746491103</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.434857801883703</v>
+        <v>5.376030688785498</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.590845472556902</v>
+        <v>8.293724804980291</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.22594309380652</v>
+        <v>11.72967871847094</v>
       </c>
       <c r="O14">
-        <v>31.3341811567279</v>
+        <v>19.56253466985188</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.82612553987126</v>
+        <v>27.29518825041061</v>
       </c>
       <c r="C15">
-        <v>17.56859341309881</v>
+        <v>13.21117511366591</v>
       </c>
       <c r="D15">
-        <v>2.850800532482535</v>
+        <v>5.303313599508808</v>
       </c>
       <c r="E15">
-        <v>6.004839725687932</v>
+        <v>7.190242852096151</v>
       </c>
       <c r="F15">
-        <v>41.80317068493572</v>
+        <v>26.9791254211368</v>
       </c>
       <c r="G15">
-        <v>2.070252348819234</v>
+        <v>2.069492874218898</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.441679199412046</v>
+        <v>5.382781428332263</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.564912855351398</v>
+        <v>8.268007022192728</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.26285867532888</v>
+        <v>11.74960223267136</v>
       </c>
       <c r="O15">
-        <v>31.22816620042159</v>
+        <v>19.52126862469157</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.78767543163745</v>
+        <v>26.40418784222924</v>
       </c>
       <c r="C16">
-        <v>16.96370994904567</v>
+        <v>12.8720589165345</v>
       </c>
       <c r="D16">
-        <v>2.814365430352341</v>
+        <v>5.23632398846912</v>
       </c>
       <c r="E16">
-        <v>6.020814281111335</v>
+        <v>7.196856381199869</v>
       </c>
       <c r="F16">
-        <v>40.9442261971484</v>
+        <v>26.56998101353824</v>
       </c>
       <c r="G16">
-        <v>2.077742840165492</v>
+        <v>2.073575877019564</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.481034407716946</v>
+        <v>5.421815206372569</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.416759035556074</v>
+        <v>8.120068667527853</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.47448099847251</v>
+        <v>11.86481772096091</v>
       </c>
       <c r="O16">
-        <v>30.62820887538792</v>
+        <v>19.29019809413436</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.14160811051449</v>
+        <v>25.84436293288916</v>
       </c>
       <c r="C17">
-        <v>16.58550230853825</v>
+        <v>12.65976489928566</v>
       </c>
       <c r="D17">
-        <v>2.79230443889491</v>
+        <v>5.195297309995409</v>
       </c>
       <c r="E17">
-        <v>6.031045500222635</v>
+        <v>7.201858963286595</v>
       </c>
       <c r="F17">
-        <v>40.42464700020146</v>
+        <v>26.32400411184846</v>
       </c>
       <c r="G17">
-        <v>2.082353258112632</v>
+        <v>2.076103802668022</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.505420892407377</v>
+        <v>5.446074260403962</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.326283408873763</v>
+        <v>8.028846440691243</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.60443786047128</v>
+        <v>11.93642331958809</v>
       </c>
       <c r="O17">
-        <v>30.26679316955402</v>
+        <v>19.15323253959595</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.76667175503506</v>
+        <v>25.51747979207558</v>
       </c>
       <c r="C18">
-        <v>16.36529413806416</v>
+        <v>12.53610278312572</v>
       </c>
       <c r="D18">
-        <v>2.779711687264899</v>
+        <v>5.171730862384638</v>
       </c>
       <c r="E18">
-        <v>6.037086268333019</v>
+        <v>7.205077370447766</v>
       </c>
       <c r="F18">
-        <v>40.12846418346099</v>
+        <v>26.18437771423148</v>
       </c>
       <c r="G18">
-        <v>2.085011895590661</v>
+        <v>2.077566617483957</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.519539585056828</v>
+        <v>5.460143499861901</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.274398759042539</v>
+        <v>7.976219995583191</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.67926054554721</v>
+        <v>11.97794701195529</v>
       </c>
       <c r="O18">
-        <v>30.0613140431624</v>
+        <v>19.07619803589289</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.63915031913832</v>
+        <v>25.40596104363445</v>
       </c>
       <c r="C19">
-        <v>16.29027152973961</v>
+        <v>12.49396653862301</v>
       </c>
       <c r="D19">
-        <v>2.77546354643231</v>
+        <v>5.163757534528341</v>
       </c>
       <c r="E19">
-        <v>6.039158146305284</v>
+        <v>7.206225048022658</v>
       </c>
       <c r="F19">
-        <v>40.02863657484825</v>
+        <v>26.13742164619092</v>
       </c>
       <c r="G19">
-        <v>2.085913353701913</v>
+        <v>2.078063445365601</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.524336031302672</v>
+        <v>5.464927134186087</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.25685843558424</v>
+        <v>7.958375840013056</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.70460947646487</v>
+        <v>11.99206413678001</v>
       </c>
       <c r="O19">
-        <v>29.99215053018394</v>
+        <v>19.050413569657</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.21072788073518</v>
+        <v>25.90446241509611</v>
       </c>
       <c r="C20">
-        <v>16.62603866714127</v>
+        <v>12.68252522924599</v>
       </c>
       <c r="D20">
-        <v>2.794642685802668</v>
+        <v>5.199661587810899</v>
       </c>
       <c r="E20">
-        <v>6.029940166127178</v>
+        <v>7.201290989813789</v>
       </c>
       <c r="F20">
-        <v>40.479680490622</v>
+        <v>26.34999717842339</v>
       </c>
       <c r="G20">
-        <v>2.081861789809316</v>
+        <v>2.075833794955917</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.502815425793976</v>
+        <v>5.443479852360012</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.335898786113972</v>
+        <v>8.038573857687986</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.59059654656655</v>
+        <v>11.92876575939929</v>
       </c>
       <c r="O20">
-        <v>30.30501746318899</v>
+        <v>19.1676318545479</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.0921795500015</v>
+        <v>27.52116062369405</v>
       </c>
       <c r="C21">
-        <v>17.72260225288471</v>
+        <v>13.29740633988986</v>
       </c>
       <c r="D21">
-        <v>2.860306473726292</v>
+        <v>5.320626017600636</v>
       </c>
       <c r="E21">
-        <v>6.00085090424985</v>
+        <v>7.188832925712248</v>
       </c>
       <c r="F21">
-        <v>42.02724388253514</v>
+        <v>27.08630385439337</v>
       </c>
       <c r="G21">
-        <v>2.068322101695683</v>
+        <v>2.06844561059734</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.431591330616329</v>
+        <v>5.372799646043957</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.603288879874418</v>
+        <v>8.306046828338072</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.20824140653429</v>
+        <v>11.72014336168869</v>
       </c>
       <c r="O21">
-        <v>31.38515394953059</v>
+        <v>19.58241904284826</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.37236989835608</v>
+        <v>28.53482894720941</v>
       </c>
       <c r="C22">
-        <v>18.41662268987992</v>
+        <v>13.68525593981966</v>
       </c>
       <c r="D22">
-        <v>2.90431715563211</v>
+        <v>5.39984451239248</v>
       </c>
       <c r="E22">
-        <v>5.983284458530933</v>
+        <v>7.183865248399041</v>
       </c>
       <c r="F22">
-        <v>43.06334557789062</v>
+        <v>27.58385359525973</v>
       </c>
       <c r="G22">
-        <v>2.059506507624572</v>
+        <v>2.063688640578094</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.385802264101209</v>
+        <v>5.327618178585279</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.779373076506674</v>
+        <v>8.479171728821822</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.95845112002752</v>
+        <v>11.58684928469058</v>
       </c>
       <c r="O22">
-        <v>32.11342475895375</v>
+        <v>19.86935712909624</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.6924731610676</v>
+        <v>27.99771469838456</v>
       </c>
       <c r="C23">
-        <v>18.04822346727414</v>
+        <v>13.47954081283191</v>
       </c>
       <c r="D23">
-        <v>2.880714958530143</v>
+        <v>5.357554659125972</v>
       </c>
       <c r="E23">
-        <v>5.992524837474626</v>
+        <v>7.18621932779201</v>
       </c>
       <c r="F23">
-        <v>42.50804222077745</v>
+        <v>27.31681538627296</v>
       </c>
       <c r="G23">
-        <v>2.064209937270034</v>
+        <v>2.06622131854751</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.410174325750139</v>
+        <v>5.351640806694031</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.685272544519036</v>
+        <v>8.386938227676421</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.09178843705281</v>
+        <v>11.65770901342387</v>
       </c>
       <c r="O23">
-        <v>31.72263269251165</v>
+        <v>19.71474796138964</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.17948975129064</v>
+        <v>25.87730712006479</v>
       </c>
       <c r="C24">
-        <v>16.60772082454175</v>
+        <v>12.67224030145146</v>
       </c>
       <c r="D24">
-        <v>2.793585285296234</v>
+        <v>5.197688433156989</v>
       </c>
       <c r="E24">
-        <v>6.030439393925813</v>
+        <v>7.201546705760959</v>
       </c>
       <c r="F24">
-        <v>40.4547919774767</v>
+        <v>26.33824013873543</v>
       </c>
       <c r="G24">
-        <v>2.08208395727255</v>
+        <v>2.075955835850598</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.503993049542741</v>
+        <v>5.444652402792793</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.331551265299852</v>
+        <v>8.034176654782103</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.59685385974538</v>
+        <v>11.93222663179501</v>
       </c>
       <c r="O24">
-        <v>30.28772909478337</v>
+        <v>19.16111660528489</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.38335791459988</v>
+        <v>23.45654436848581</v>
       </c>
       <c r="C25">
-        <v>14.951167921276</v>
+        <v>11.74212972451962</v>
       </c>
       <c r="D25">
-        <v>2.7031776720684</v>
+        <v>5.026511087731881</v>
       </c>
       <c r="E25">
-        <v>6.077279592121388</v>
+        <v>7.231044479528348</v>
       </c>
       <c r="F25">
-        <v>38.34185516312824</v>
+        <v>25.35362068330559</v>
       </c>
       <c r="G25">
-        <v>2.101638091160458</v>
+        <v>2.086796745354202</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.608748386242132</v>
+        <v>5.549431180358753</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.956012859755572</v>
+        <v>7.64784753564713</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.14479129032137</v>
+        <v>12.24125706943089</v>
       </c>
       <c r="O25">
-        <v>28.83134045220597</v>
+        <v>18.63038394524917</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.58860960430498</v>
+        <v>19.82188563644276</v>
       </c>
       <c r="C2">
-        <v>11.00764720677882</v>
+        <v>11.77214548132229</v>
       </c>
       <c r="D2">
-        <v>4.902213275623616</v>
+        <v>5.792645131930518</v>
       </c>
       <c r="E2">
-        <v>7.263212649556887</v>
+        <v>7.699811520685625</v>
       </c>
       <c r="F2">
-        <v>24.69021987757133</v>
+        <v>20.58121226467105</v>
       </c>
       <c r="G2">
-        <v>2.095107075771975</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>23.15292110213637</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.490649566503456</v>
       </c>
       <c r="J2">
-        <v>5.630538703384827</v>
+        <v>8.985002147745396</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.01994708420094</v>
       </c>
       <c r="L2">
-        <v>7.360142882035873</v>
+        <v>5.668598217372062</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.47983367167985</v>
+        <v>7.352175706656285</v>
       </c>
       <c r="O2">
-        <v>18.29453460935137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.60427491443796</v>
+      </c>
+      <c r="Q2">
+        <v>14.7993157265295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.23602117638054</v>
+        <v>18.5502417926219</v>
       </c>
       <c r="C3">
-        <v>10.48001619228208</v>
+        <v>11.26867234329647</v>
       </c>
       <c r="D3">
-        <v>4.819415569953297</v>
+        <v>5.688217978522115</v>
       </c>
       <c r="E3">
-        <v>7.29119695369321</v>
+        <v>7.715228984893756</v>
       </c>
       <c r="F3">
-        <v>24.27911528151773</v>
+        <v>20.28915598128274</v>
       </c>
       <c r="G3">
-        <v>2.100959973866042</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>22.62572072835251</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.652339079688558</v>
       </c>
       <c r="J3">
-        <v>5.688041194526206</v>
+        <v>8.991139203358875</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.1371597124846</v>
       </c>
       <c r="L3">
-        <v>7.164175896968058</v>
+        <v>5.708694846734374</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.64841082883484</v>
+        <v>7.145987138727886</v>
       </c>
       <c r="O3">
-        <v>18.0998163598599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.64789174264384</v>
+      </c>
+      <c r="Q3">
+        <v>14.69523468913012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.3634345143338</v>
+        <v>17.72180526519864</v>
       </c>
       <c r="C4">
-        <v>10.14183831447969</v>
+        <v>10.94906774770985</v>
       </c>
       <c r="D4">
-        <v>4.769411320829384</v>
+        <v>5.625405919667589</v>
       </c>
       <c r="E4">
-        <v>7.31132331757711</v>
+        <v>7.727184418540434</v>
       </c>
       <c r="F4">
-        <v>24.04560723509457</v>
+        <v>20.11941710257762</v>
       </c>
       <c r="G4">
-        <v>2.104667607281979</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>22.31151050508022</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.756244362700897</v>
       </c>
       <c r="J4">
-        <v>5.724619583077707</v>
+        <v>8.998855388956283</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.21535081963604</v>
       </c>
       <c r="L4">
-        <v>7.043755259123742</v>
+        <v>5.73413154457509</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.75532774451504</v>
+        <v>7.019478931637824</v>
       </c>
       <c r="O4">
-        <v>17.9959375530105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.67796982855821</v>
+      </c>
+      <c r="Q4">
+        <v>14.6391129981399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.99740969540113</v>
+        <v>17.36768493479902</v>
       </c>
       <c r="C5">
-        <v>10.0005530392647</v>
+        <v>10.82264428444087</v>
       </c>
       <c r="D5">
-        <v>4.749262888497754</v>
+        <v>5.600472803840232</v>
       </c>
       <c r="E5">
-        <v>7.320249960033881</v>
+        <v>7.73199134096278</v>
       </c>
       <c r="F5">
-        <v>23.95518363927498</v>
+        <v>20.04725413664789</v>
       </c>
       <c r="G5">
-        <v>2.106207835583928</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>22.17630529073184</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.802753516572005</v>
       </c>
       <c r="J5">
-        <v>5.739848301258954</v>
+        <v>9.001444215332395</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.24506515141776</v>
       </c>
       <c r="L5">
-        <v>6.994721767763553</v>
+        <v>5.744467489550108</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.79975664090361</v>
+        <v>6.969510855454267</v>
       </c>
       <c r="O5">
-        <v>17.95745878219527</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.69201109161518</v>
+      </c>
+      <c r="Q5">
+        <v>14.61425477164697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.93600627916125</v>
+        <v>17.30256028276539</v>
       </c>
       <c r="C6">
-        <v>9.97688609421937</v>
+        <v>10.80928195218487</v>
       </c>
       <c r="D6">
-        <v>4.745931622794488</v>
+        <v>5.596729043768654</v>
       </c>
       <c r="E6">
-        <v>7.321775571468851</v>
+        <v>7.731992327034281</v>
       </c>
       <c r="F6">
-        <v>23.94045374546548</v>
+        <v>20.02877501544154</v>
       </c>
       <c r="G6">
-        <v>2.106465380808259</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>22.14216983803023</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.814413918815252</v>
       </c>
       <c r="J6">
-        <v>5.742396596583503</v>
+        <v>9.000067432605153</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.24560913199789</v>
       </c>
       <c r="L6">
-        <v>6.986584042307515</v>
+        <v>5.745906602741824</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.80718600123936</v>
+        <v>6.963042589387901</v>
       </c>
       <c r="O6">
-        <v>17.95129927871823</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.69558660764661</v>
+      </c>
+      <c r="Q6">
+        <v>14.60545417839774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.35854021441931</v>
+        <v>17.70213139818082</v>
       </c>
       <c r="C7">
-        <v>10.13994681826608</v>
+        <v>10.9683527154237</v>
       </c>
       <c r="D7">
-        <v>4.769138640971365</v>
+        <v>5.626081650510577</v>
       </c>
       <c r="E7">
-        <v>7.311440789801636</v>
+        <v>7.724971022440099</v>
       </c>
       <c r="F7">
-        <v>24.04436862941016</v>
+        <v>20.10036507470521</v>
       </c>
       <c r="G7">
-        <v>2.104688259662449</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>22.27756072772387</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.767123295709121</v>
       </c>
       <c r="J7">
-        <v>5.72482365226572</v>
+        <v>8.993797779174537</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.20349265514048</v>
       </c>
       <c r="L7">
-        <v>7.043093733344172</v>
+        <v>5.733485377979264</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.75592344537429</v>
+        <v>7.023724937098792</v>
       </c>
       <c r="O7">
-        <v>17.9954031416579</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.68148264902632</v>
+      </c>
+      <c r="Q7">
+        <v>14.62572204012012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.13104668848849</v>
+        <v>19.37503950248974</v>
       </c>
       <c r="C8">
-        <v>10.82872251178456</v>
+        <v>11.62734089233191</v>
       </c>
       <c r="D8">
-        <v>4.873502980115779</v>
+        <v>5.757690064478039</v>
       </c>
       <c r="E8">
-        <v>7.272241299408143</v>
+        <v>7.701604249479153</v>
       </c>
       <c r="F8">
-        <v>24.5445368397643</v>
+        <v>20.45503659608837</v>
       </c>
       <c r="G8">
-        <v>2.097101933779193</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>22.92787976537956</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.558759889547877</v>
       </c>
       <c r="J8">
-        <v>5.650103436993337</v>
+        <v>8.979569717855551</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.04276299539162</v>
       </c>
       <c r="L8">
-        <v>7.292630279713381</v>
+        <v>5.681244084123413</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.53725231408316</v>
+        <v>7.287376518331352</v>
       </c>
       <c r="O8">
-        <v>18.22409059868133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.62328781483514</v>
+      </c>
+      <c r="Q8">
+        <v>14.74469355789257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.2687179701115</v>
+        <v>22.3380054026618</v>
       </c>
       <c r="C9">
-        <v>12.06326541672488</v>
+        <v>12.79768631197728</v>
       </c>
       <c r="D9">
-        <v>5.083947943349741</v>
+        <v>6.023097301043196</v>
       </c>
       <c r="E9">
-        <v>7.21943919175957</v>
+        <v>7.679999295456833</v>
       </c>
       <c r="F9">
-        <v>25.67575769523435</v>
+        <v>21.25671584704741</v>
       </c>
       <c r="G9">
-        <v>2.083096235014802</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>24.32806119771244</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.776857376499181</v>
       </c>
       <c r="J9">
-        <v>5.513529967631326</v>
+        <v>8.99316665475396</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.80131455035167</v>
       </c>
       <c r="L9">
-        <v>7.778615889020804</v>
+        <v>5.586545561032663</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.13544286115999</v>
+        <v>7.793699457831961</v>
       </c>
       <c r="O9">
-        <v>18.80046765501329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.52975335524141</v>
+      </c>
+      <c r="Q9">
+        <v>15.0640870639348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.46740749950774</v>
+        <v>24.30372928498902</v>
       </c>
       <c r="C10">
-        <v>12.89607162995809</v>
+        <v>13.6100225351665</v>
       </c>
       <c r="D10">
-        <v>5.241009213457272</v>
+        <v>6.222363728592483</v>
       </c>
       <c r="E10">
-        <v>7.196332224690434</v>
+        <v>7.675869272259324</v>
       </c>
       <c r="F10">
-        <v>26.59829918293178</v>
+        <v>21.8803164692691</v>
       </c>
       <c r="G10">
-        <v>2.073288595417664</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>25.37659847194312</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.038848199304954</v>
       </c>
       <c r="J10">
-        <v>5.419062734511206</v>
+        <v>9.021921958692715</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.65268882845244</v>
       </c>
       <c r="L10">
-        <v>8.130455356764028</v>
+        <v>5.520377564273129</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.85669294936892</v>
+        <v>8.162656277388432</v>
       </c>
       <c r="O10">
-        <v>19.30606433018976</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.48072868583112</v>
+      </c>
+      <c r="Q10">
+        <v>15.33236074758838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.41891277714938</v>
+        <v>25.12759722594823</v>
       </c>
       <c r="C11">
-        <v>13.25837761872623</v>
+        <v>13.99460921490465</v>
       </c>
       <c r="D11">
-        <v>5.312776562459487</v>
+        <v>6.314930189457156</v>
       </c>
       <c r="E11">
-        <v>7.189457363560421</v>
+        <v>7.673237383133567</v>
       </c>
       <c r="F11">
-        <v>27.0376378348475</v>
+        <v>22.14609891663421</v>
       </c>
       <c r="G11">
-        <v>2.068920067747583</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>25.8143328207547</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.160076902421929</v>
       </c>
       <c r="J11">
-        <v>5.377320297176134</v>
+        <v>9.031787497297788</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.57304882060064</v>
       </c>
       <c r="L11">
-        <v>8.288809033838698</v>
+        <v>5.489895879277227</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.73348465660241</v>
+        <v>8.335354070457415</v>
       </c>
       <c r="O11">
-        <v>19.55462230734963</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.46929489131572</v>
+      </c>
+      <c r="Q11">
+        <v>15.44328093533079</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.77185332109626</v>
+        <v>25.44181483279063</v>
       </c>
       <c r="C12">
-        <v>13.39317208311951</v>
+        <v>14.12306109607677</v>
       </c>
       <c r="D12">
-        <v>5.339982162109445</v>
+        <v>6.34924136185579</v>
       </c>
       <c r="E12">
-        <v>7.187396922179692</v>
+        <v>7.674623529671683</v>
       </c>
       <c r="F12">
-        <v>27.20680927701741</v>
+        <v>22.2623775944472</v>
       </c>
       <c r="G12">
-        <v>2.067278179419252</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>26.00539004861605</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.203141504716357</v>
       </c>
       <c r="J12">
-        <v>5.361687236506732</v>
+        <v>9.040608683026305</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.55498365697866</v>
       </c>
       <c r="L12">
-        <v>8.348487867045721</v>
+        <v>5.47909196783483</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.6873513428163</v>
+        <v>8.396782981565307</v>
       </c>
       <c r="O12">
-        <v>19.65146190400436</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.46209715304139</v>
+      </c>
+      <c r="Q12">
+        <v>15.49733775672968</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.69616781971789</v>
+        <v>25.37638139975685</v>
       </c>
       <c r="C13">
-        <v>13.36424883747175</v>
+        <v>14.09246938729725</v>
       </c>
       <c r="D13">
-        <v>5.334121924009485</v>
+        <v>6.341695639458572</v>
       </c>
       <c r="E13">
-        <v>7.187816202123829</v>
+        <v>7.674698241092742</v>
       </c>
       <c r="F13">
-        <v>27.17025087834636</v>
+        <v>22.24014538323187</v>
       </c>
       <c r="G13">
-        <v>2.067631255556365</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>25.96906576507935</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.193330603444284</v>
       </c>
       <c r="J13">
-        <v>5.365046411934501</v>
+        <v>9.039548063164876</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.56099618051736</v>
       </c>
       <c r="L13">
-        <v>8.335648302851773</v>
+        <v>5.481539340382914</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.69726360111794</v>
+        <v>8.38284781599326</v>
       </c>
       <c r="O13">
-        <v>19.63048425915501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.462904896739</v>
+      </c>
+      <c r="Q13">
+        <v>15.48778320441352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.44809669127396</v>
+        <v>25.1544143967409</v>
       </c>
       <c r="C14">
-        <v>13.26951550320624</v>
+        <v>14.00392815093411</v>
       </c>
       <c r="D14">
-        <v>5.315014298333711</v>
+        <v>6.317686268580363</v>
       </c>
       <c r="E14">
-        <v>7.189276851671729</v>
+        <v>7.673509583536632</v>
       </c>
       <c r="F14">
-        <v>27.05149962452887</v>
+        <v>22.15686212231471</v>
       </c>
       <c r="G14">
-        <v>2.068784746491103</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>25.83210963942018</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.163383888533952</v>
       </c>
       <c r="J14">
-        <v>5.376030688785498</v>
+        <v>9.032869248343731</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.57246204263122</v>
       </c>
       <c r="L14">
-        <v>8.293724804980291</v>
+        <v>5.489058190496067</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.72967871847094</v>
+        <v>8.340106851632781</v>
       </c>
       <c r="O14">
-        <v>19.56253466985188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.46838774735892</v>
+      </c>
+      <c r="Q14">
+        <v>15.44861585024436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.29518825041061</v>
+        <v>25.01366382846373</v>
       </c>
       <c r="C15">
-        <v>13.21117511366591</v>
+        <v>13.95544686984652</v>
       </c>
       <c r="D15">
-        <v>5.303313599508808</v>
+        <v>6.303291870693194</v>
       </c>
       <c r="E15">
-        <v>7.190242852096151</v>
+        <v>7.672064038276173</v>
       </c>
       <c r="F15">
-        <v>26.9791254211368</v>
+        <v>22.100325923589</v>
       </c>
       <c r="G15">
-        <v>2.069492874218898</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>25.73865817541261</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.1461941139426</v>
       </c>
       <c r="J15">
-        <v>5.382781428332263</v>
+        <v>9.027154006855524</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.57536707354228</v>
       </c>
       <c r="L15">
-        <v>8.268007022192728</v>
+        <v>5.493430446381026</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.74960223267136</v>
+        <v>8.315317841861967</v>
       </c>
       <c r="O15">
-        <v>19.52126862469157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.4732249053072</v>
+      </c>
+      <c r="Q15">
+        <v>15.42054843676292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.40418784222924</v>
+        <v>24.21597242048759</v>
       </c>
       <c r="C16">
-        <v>12.8720589165345</v>
+        <v>13.63597682068773</v>
       </c>
       <c r="D16">
-        <v>5.23632398846912</v>
+        <v>6.218944155667687</v>
       </c>
       <c r="E16">
-        <v>7.196856381199869</v>
+        <v>7.669573420424965</v>
       </c>
       <c r="F16">
-        <v>26.56998101353824</v>
+        <v>21.81479992423357</v>
       </c>
       <c r="G16">
-        <v>2.073575877019564</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>25.26564750058115</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.039889416562759</v>
       </c>
       <c r="J16">
-        <v>5.421815206372569</v>
+        <v>9.006841836053022</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.62197165820706</v>
       </c>
       <c r="L16">
-        <v>8.120068667527853</v>
+        <v>5.520286482502174</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.86481772096091</v>
+        <v>8.163589769180913</v>
       </c>
       <c r="O16">
-        <v>19.29019809413436</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.49318119508451</v>
+      </c>
+      <c r="Q16">
+        <v>15.28928136075151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.84436293288916</v>
+        <v>23.71310001666333</v>
       </c>
       <c r="C17">
-        <v>12.65976489928566</v>
+        <v>13.436634739174</v>
       </c>
       <c r="D17">
-        <v>5.195297309995409</v>
+        <v>6.167297235087935</v>
       </c>
       <c r="E17">
-        <v>7.201858963286595</v>
+        <v>7.668825706705711</v>
       </c>
       <c r="F17">
-        <v>26.32400411184846</v>
+        <v>21.64196169208666</v>
       </c>
       <c r="G17">
-        <v>2.076103802668022</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>24.97699586987787</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.97425504627546</v>
       </c>
       <c r="J17">
-        <v>5.446074260403962</v>
+        <v>8.995720454231318</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.65292946364626</v>
       </c>
       <c r="L17">
-        <v>8.028846440691243</v>
+        <v>5.536968836201297</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.93642331958809</v>
+        <v>8.069991589053439</v>
       </c>
       <c r="O17">
-        <v>19.15323253959595</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.50642385140284</v>
+      </c>
+      <c r="Q17">
+        <v>15.21115224771644</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.51747979207558</v>
+        <v>23.4291361306856</v>
       </c>
       <c r="C18">
-        <v>12.53610278312572</v>
+        <v>13.30485189035797</v>
       </c>
       <c r="D18">
-        <v>5.171730862384638</v>
+        <v>6.136829065282186</v>
       </c>
       <c r="E18">
-        <v>7.205077370447766</v>
+        <v>7.670658855457164</v>
       </c>
       <c r="F18">
-        <v>26.18437771423148</v>
+        <v>21.55823794443219</v>
       </c>
       <c r="G18">
-        <v>2.077566617483957</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>24.83699165836236</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.932594424087752</v>
       </c>
       <c r="J18">
-        <v>5.460143499861901</v>
+        <v>8.994221623341563</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.6824709836127</v>
       </c>
       <c r="L18">
-        <v>7.976219995583191</v>
+        <v>5.547279270024204</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.97794701195529</v>
+        <v>8.012192910408618</v>
       </c>
       <c r="O18">
-        <v>19.07619803589289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.51092863631869</v>
+      </c>
+      <c r="Q18">
+        <v>15.17808674781624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.40596104363445</v>
+        <v>23.32423568826759</v>
       </c>
       <c r="C19">
-        <v>12.49396653862301</v>
+        <v>13.27226955036039</v>
       </c>
       <c r="D19">
-        <v>5.163757534528341</v>
+        <v>6.127143534199223</v>
       </c>
       <c r="E19">
-        <v>7.206225048022658</v>
+        <v>7.669800965118386</v>
       </c>
       <c r="F19">
-        <v>26.13742164619092</v>
+        <v>21.51862570599809</v>
       </c>
       <c r="G19">
-        <v>2.078063445365601</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>24.77012171833961</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.921265559045472</v>
       </c>
       <c r="J19">
-        <v>5.464927134186087</v>
+        <v>8.990392505419813</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.68421391800017</v>
       </c>
       <c r="L19">
-        <v>7.958375840013056</v>
+        <v>5.550291081145785</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.99206413678001</v>
+        <v>7.995513578774063</v>
       </c>
       <c r="O19">
-        <v>19.050413569657</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.51519544898156</v>
+      </c>
+      <c r="Q19">
+        <v>15.15856702869007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.90446241509611</v>
+        <v>23.76794279902219</v>
       </c>
       <c r="C20">
-        <v>12.68252522924599</v>
+        <v>13.45674390963796</v>
       </c>
       <c r="D20">
-        <v>5.199661587810899</v>
+        <v>6.172727718439049</v>
       </c>
       <c r="E20">
-        <v>7.201290989813789</v>
+        <v>7.669031189876925</v>
       </c>
       <c r="F20">
-        <v>26.34999717842339</v>
+        <v>21.6614278336184</v>
       </c>
       <c r="G20">
-        <v>2.075833794955917</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>25.00964233245613</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.980960455853896</v>
       </c>
       <c r="J20">
-        <v>5.443479852360012</v>
+        <v>8.997200108133386</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.6504010617064</v>
       </c>
       <c r="L20">
-        <v>8.038573857687986</v>
+        <v>5.535235011174789</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.92876575939929</v>
+        <v>8.079678513691551</v>
       </c>
       <c r="O20">
-        <v>19.1676318545479</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.50470234669018</v>
+      </c>
+      <c r="Q20">
+        <v>15.2202383160318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.52116062369405</v>
+        <v>25.2090896368723</v>
       </c>
       <c r="C21">
-        <v>13.29740633988986</v>
+        <v>14.04693258682205</v>
       </c>
       <c r="D21">
-        <v>5.320626017600636</v>
+        <v>6.325608002931483</v>
       </c>
       <c r="E21">
-        <v>7.188832925712248</v>
+        <v>7.671645000966862</v>
       </c>
       <c r="F21">
-        <v>27.08630385439337</v>
+        <v>22.16520261721691</v>
       </c>
       <c r="G21">
-        <v>2.06844561059734</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>25.84502981493649</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.17558229272671</v>
       </c>
       <c r="J21">
-        <v>5.372799646043957</v>
+        <v>9.029916030812609</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.55684165731134</v>
       </c>
       <c r="L21">
-        <v>8.306046828338072</v>
+        <v>5.48614298196801</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.72014336168869</v>
+        <v>8.356720375134289</v>
       </c>
       <c r="O21">
-        <v>19.58241904284826</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.47076272174036</v>
+      </c>
+      <c r="Q21">
+        <v>15.44803787495245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.53482894720941</v>
+        <v>26.12059528059058</v>
       </c>
       <c r="C22">
-        <v>13.68525593981966</v>
+        <v>14.40003411326922</v>
       </c>
       <c r="D22">
-        <v>5.39984451239248</v>
+        <v>6.424629920006715</v>
       </c>
       <c r="E22">
-        <v>7.183865248399041</v>
+        <v>7.678743995488555</v>
       </c>
       <c r="F22">
-        <v>27.58385359525973</v>
+        <v>22.52222812243922</v>
       </c>
       <c r="G22">
-        <v>2.063688640578094</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>26.43006935173521</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.296964594721887</v>
       </c>
       <c r="J22">
-        <v>5.327618178585279</v>
+        <v>9.061997752384151</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.51926037551473</v>
       </c>
       <c r="L22">
-        <v>8.479171728821822</v>
+        <v>5.455621999507089</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.58684928469058</v>
+        <v>8.530755983703239</v>
       </c>
       <c r="O22">
-        <v>19.86935712909624</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.44686268944964</v>
+      </c>
+      <c r="Q22">
+        <v>15.6200925741119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.99771469838456</v>
+        <v>25.65091358373845</v>
       </c>
       <c r="C23">
-        <v>13.47954081283191</v>
+        <v>14.19232964055895</v>
       </c>
       <c r="D23">
-        <v>5.357554659125972</v>
+        <v>6.370726408711472</v>
       </c>
       <c r="E23">
-        <v>7.18621932779201</v>
+        <v>7.677366553848916</v>
       </c>
       <c r="F23">
-        <v>27.31681538627296</v>
+        <v>22.35032882141444</v>
       </c>
       <c r="G23">
-        <v>2.06622131854751</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>26.15014813620595</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.228651378181223</v>
       </c>
       <c r="J23">
-        <v>5.351640806694031</v>
+        <v>9.050349032133539</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.55329719372035</v>
       </c>
       <c r="L23">
-        <v>8.386938227676421</v>
+        <v>5.472698218932468</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.65770901342387</v>
+        <v>8.433209432439741</v>
       </c>
       <c r="O23">
-        <v>19.71474796138964</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.45446034765965</v>
+      </c>
+      <c r="Q23">
+        <v>15.54201540215645</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.87730712006479</v>
+        <v>23.76462689828119</v>
       </c>
       <c r="C24">
-        <v>12.67224030145146</v>
+        <v>13.41429016483442</v>
       </c>
       <c r="D24">
-        <v>5.197688433156989</v>
+        <v>6.168574702662881</v>
       </c>
       <c r="E24">
-        <v>7.201546705760959</v>
+        <v>7.673124964298923</v>
       </c>
       <c r="F24">
-        <v>26.33824013873543</v>
+        <v>21.68383292816844</v>
       </c>
       <c r="G24">
-        <v>2.075955835850598</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>25.04830778636998</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.971064228451727</v>
       </c>
       <c r="J24">
-        <v>5.444652402792793</v>
+        <v>9.005862362651397</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.67462666869304</v>
       </c>
       <c r="L24">
-        <v>8.034176654782103</v>
+        <v>5.537367794206525</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.93222663179501</v>
+        <v>8.067341950223886</v>
       </c>
       <c r="O24">
-        <v>19.16111660528489</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.49809578156587</v>
+      </c>
+      <c r="Q24">
+        <v>15.23932525292921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.45654436848581</v>
+        <v>21.54210201317225</v>
       </c>
       <c r="C25">
-        <v>11.74212972451962</v>
+        <v>12.52494074320985</v>
       </c>
       <c r="D25">
-        <v>5.026511087731881</v>
+        <v>5.952218042742842</v>
       </c>
       <c r="E25">
-        <v>7.231044479528348</v>
+        <v>7.679543001697978</v>
       </c>
       <c r="F25">
-        <v>25.35362068330559</v>
+        <v>21.00087648503289</v>
       </c>
       <c r="G25">
-        <v>2.086796745354202</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>23.88852914710258</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.684038373583418</v>
       </c>
       <c r="J25">
-        <v>5.549431180358753</v>
+        <v>8.976736545469649</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.83841142612706</v>
       </c>
       <c r="L25">
-        <v>7.64784753564713</v>
+        <v>5.61015331926186</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.24125706943089</v>
+        <v>7.66549978438848</v>
       </c>
       <c r="O25">
-        <v>18.63038394524917</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.5588670451675</v>
+      </c>
+      <c r="Q25">
+        <v>14.94780492331795</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_9/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_9/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.82188563644276</v>
+        <v>19.58407655543247</v>
       </c>
       <c r="C2">
-        <v>11.77214548132229</v>
+        <v>11.88743809211599</v>
       </c>
       <c r="D2">
-        <v>5.792645131930518</v>
+        <v>5.794737675590476</v>
       </c>
       <c r="E2">
-        <v>7.699811520685625</v>
+        <v>7.593281966219016</v>
       </c>
       <c r="F2">
-        <v>20.58121226467105</v>
+        <v>20.20330877998779</v>
       </c>
       <c r="G2">
-        <v>23.15292110213637</v>
+        <v>21.92020945646637</v>
       </c>
       <c r="I2">
-        <v>2.490649566503456</v>
+        <v>2.517260083201835</v>
       </c>
       <c r="J2">
-        <v>8.985002147745396</v>
+        <v>9.34282395766885</v>
       </c>
       <c r="K2">
-        <v>14.01994708420094</v>
+        <v>13.6487953621519</v>
       </c>
       <c r="L2">
-        <v>5.668598217372062</v>
+        <v>11.78838835789188</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.409294221477495</v>
       </c>
       <c r="N2">
-        <v>7.352175706656285</v>
+        <v>5.606625296469181</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.60427491443796</v>
+        <v>7.469546958951595</v>
       </c>
       <c r="Q2">
-        <v>14.7993157265295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.6096151380985</v>
+      </c>
+      <c r="S2">
+        <v>14.52057617460705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.5502417926219</v>
+        <v>18.34400939564908</v>
       </c>
       <c r="C3">
-        <v>11.26867234329647</v>
+        <v>11.29959411926178</v>
       </c>
       <c r="D3">
-        <v>5.688217978522115</v>
+        <v>5.689029721806984</v>
       </c>
       <c r="E3">
-        <v>7.715228984893756</v>
+        <v>7.612149470576347</v>
       </c>
       <c r="F3">
-        <v>20.28915598128274</v>
+        <v>19.94162906850368</v>
       </c>
       <c r="G3">
-        <v>22.62572072835251</v>
+        <v>21.45950727679112</v>
       </c>
       <c r="I3">
-        <v>2.652339079688558</v>
+        <v>2.575345100070092</v>
       </c>
       <c r="J3">
-        <v>8.991139203358875</v>
+        <v>9.323257478018828</v>
       </c>
       <c r="K3">
-        <v>14.1371597124846</v>
+        <v>13.77749544788592</v>
       </c>
       <c r="L3">
-        <v>5.708694846734374</v>
+        <v>11.95215307555888</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.457378779059797</v>
       </c>
       <c r="N3">
-        <v>7.145987138727886</v>
+        <v>5.644303967603784</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.64789174264384</v>
+        <v>7.253343352903749</v>
       </c>
       <c r="Q3">
-        <v>14.69523468913012</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.62760092359727</v>
+      </c>
+      <c r="S3">
+        <v>14.43611021699441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.72180526519864</v>
+        <v>17.5351762162101</v>
       </c>
       <c r="C4">
-        <v>10.94906774770985</v>
+        <v>10.92558454221435</v>
       </c>
       <c r="D4">
-        <v>5.625405919667589</v>
+        <v>5.625521055235725</v>
       </c>
       <c r="E4">
-        <v>7.727184418540434</v>
+        <v>7.626032872242094</v>
       </c>
       <c r="F4">
-        <v>20.11941710257762</v>
+        <v>19.78883306792644</v>
       </c>
       <c r="G4">
-        <v>22.31151050508022</v>
+        <v>21.18766574561995</v>
       </c>
       <c r="I4">
-        <v>2.756244362700897</v>
+        <v>2.668268632777218</v>
       </c>
       <c r="J4">
-        <v>8.998855388956283</v>
+        <v>9.312895800328119</v>
       </c>
       <c r="K4">
-        <v>14.21535081963604</v>
+        <v>13.86122326599197</v>
       </c>
       <c r="L4">
-        <v>5.73413154457509</v>
+        <v>12.05539530844315</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.509058904372557</v>
       </c>
       <c r="N4">
-        <v>7.019478931637824</v>
+        <v>5.668172240189951</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.67796982855821</v>
+        <v>7.120719772042586</v>
       </c>
       <c r="Q4">
-        <v>14.6391129981399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.64220010376097</v>
+      </c>
+      <c r="S4">
+        <v>14.39057726975294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.36768493479902</v>
+        <v>17.1890165733083</v>
       </c>
       <c r="C5">
-        <v>10.82264428444087</v>
+        <v>10.77678036899621</v>
       </c>
       <c r="D5">
-        <v>5.600472803840232</v>
+        <v>5.600336815489451</v>
       </c>
       <c r="E5">
-        <v>7.73199134096278</v>
+        <v>7.631576079978737</v>
       </c>
       <c r="F5">
-        <v>20.04725413664789</v>
+        <v>19.72307160217381</v>
       </c>
       <c r="G5">
-        <v>22.17630529073184</v>
+        <v>21.06979828908755</v>
       </c>
       <c r="I5">
-        <v>2.802753516572005</v>
+        <v>2.710789043265208</v>
       </c>
       <c r="J5">
-        <v>9.001444215332395</v>
+        <v>9.307529810434509</v>
       </c>
       <c r="K5">
-        <v>14.24506515141776</v>
+        <v>13.892859858929</v>
       </c>
       <c r="L5">
-        <v>5.744467489550108</v>
+        <v>12.09462284646535</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.533675279513297</v>
       </c>
       <c r="N5">
-        <v>6.969510855454267</v>
+        <v>5.677855095334826</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.69201109161518</v>
+        <v>7.068292578233266</v>
       </c>
       <c r="Q5">
-        <v>14.61425477164697</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.65006427091969</v>
+      </c>
+      <c r="S5">
+        <v>14.3696330760884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.30256028276539</v>
+        <v>17.12513987817567</v>
       </c>
       <c r="C6">
-        <v>10.80928195218487</v>
+        <v>10.76016925699141</v>
       </c>
       <c r="D6">
-        <v>5.596729043768654</v>
+        <v>5.596562927557731</v>
       </c>
       <c r="E6">
-        <v>7.731992327034281</v>
+        <v>7.631693702965468</v>
       </c>
       <c r="F6">
-        <v>20.02877501544154</v>
+        <v>19.70555396544699</v>
       </c>
       <c r="G6">
-        <v>22.14216983803023</v>
+        <v>21.03824691151907</v>
       </c>
       <c r="I6">
-        <v>2.814413918815252</v>
+        <v>2.722472731358861</v>
       </c>
       <c r="J6">
-        <v>9.000067432605153</v>
+        <v>9.304763439628545</v>
       </c>
       <c r="K6">
-        <v>14.24560913199789</v>
+        <v>13.89374292344191</v>
       </c>
       <c r="L6">
-        <v>5.745906602741824</v>
+        <v>12.09687401530708</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.535762431298236</v>
       </c>
       <c r="N6">
-        <v>6.963042589387901</v>
+        <v>5.679193460150797</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.69558660764661</v>
+        <v>7.061435841626189</v>
       </c>
       <c r="Q6">
-        <v>14.60545417839774</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.65269799600449</v>
+      </c>
+      <c r="S6">
+        <v>14.36141837207134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.70213139818082</v>
+        <v>17.50986224046227</v>
       </c>
       <c r="C7">
-        <v>10.9683527154237</v>
+        <v>10.93877652001176</v>
       </c>
       <c r="D7">
-        <v>5.626081650510577</v>
+        <v>5.628963157498735</v>
       </c>
       <c r="E7">
-        <v>7.724971022440099</v>
+        <v>7.624869939572982</v>
       </c>
       <c r="F7">
-        <v>20.10036507470521</v>
+        <v>19.75881338482548</v>
       </c>
       <c r="G7">
-        <v>22.27756072772387</v>
+        <v>21.24236087347006</v>
       </c>
       <c r="I7">
-        <v>2.767123295709121</v>
+        <v>2.681431404179978</v>
       </c>
       <c r="J7">
-        <v>8.993797779174537</v>
+        <v>9.270298415909599</v>
       </c>
       <c r="K7">
-        <v>14.20349265514048</v>
+        <v>13.84529332827399</v>
       </c>
       <c r="L7">
-        <v>5.733485377979264</v>
+        <v>12.04037825103632</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.500331716422957</v>
       </c>
       <c r="N7">
-        <v>7.023724937098792</v>
+        <v>5.667537102206236</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.68148264902632</v>
+        <v>7.12438378358563</v>
       </c>
       <c r="Q7">
-        <v>14.62572204012012</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.64723167212589</v>
+      </c>
+      <c r="S7">
+        <v>14.3684322290434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.37503950248974</v>
+        <v>19.1308045333047</v>
       </c>
       <c r="C8">
-        <v>11.62734089233191</v>
+        <v>11.69324882960015</v>
       </c>
       <c r="D8">
-        <v>5.757690064478039</v>
+        <v>5.76831184072874</v>
       </c>
       <c r="E8">
-        <v>7.701604249479153</v>
+        <v>7.599811167529339</v>
       </c>
       <c r="F8">
-        <v>20.45503659608837</v>
+        <v>20.05223013648797</v>
       </c>
       <c r="G8">
-        <v>22.92787976537956</v>
+        <v>22.0067532850813</v>
       </c>
       <c r="I8">
-        <v>2.558759889547877</v>
+        <v>2.497337107746621</v>
       </c>
       <c r="J8">
-        <v>8.979569717855551</v>
+        <v>9.206812190389279</v>
       </c>
       <c r="K8">
-        <v>14.04276299539162</v>
+        <v>13.6621755998107</v>
       </c>
       <c r="L8">
-        <v>5.681244084123413</v>
+        <v>11.81816961914468</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.401391885335908</v>
       </c>
       <c r="N8">
-        <v>7.287376518331352</v>
+        <v>5.618491088982132</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.62328781483514</v>
+        <v>7.399383654665781</v>
       </c>
       <c r="Q8">
-        <v>14.74469355789257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.62492003596958</v>
+      </c>
+      <c r="S8">
+        <v>14.44426097309364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.3380054026618</v>
+        <v>22.03811939650982</v>
       </c>
       <c r="C9">
-        <v>12.79768631197728</v>
+        <v>13.05340307918054</v>
       </c>
       <c r="D9">
-        <v>6.023097301043196</v>
+        <v>6.039321596316693</v>
       </c>
       <c r="E9">
-        <v>7.679999295456833</v>
+        <v>7.569514929054631</v>
       </c>
       <c r="F9">
-        <v>21.25671584704741</v>
+        <v>20.76110705578019</v>
       </c>
       <c r="G9">
-        <v>24.32806119771244</v>
+        <v>23.31366664672129</v>
       </c>
       <c r="I9">
-        <v>2.776857376499181</v>
+        <v>2.804356942876655</v>
       </c>
       <c r="J9">
-        <v>8.99316665475396</v>
+        <v>9.238336682251164</v>
       </c>
       <c r="K9">
-        <v>13.80131455035167</v>
+        <v>13.37892786800723</v>
       </c>
       <c r="L9">
-        <v>5.586545561032663</v>
+        <v>11.43640535329765</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.410455344555348</v>
       </c>
       <c r="N9">
-        <v>7.793699457831961</v>
+        <v>5.529353633421498</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.52975335524141</v>
+        <v>7.929981155278876</v>
       </c>
       <c r="Q9">
-        <v>15.0640870639348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.59828966605489</v>
+      </c>
+      <c r="S9">
+        <v>14.69959306075333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.30372928498902</v>
+        <v>23.91252848515659</v>
       </c>
       <c r="C10">
-        <v>13.6100225351665</v>
+        <v>13.95749305817786</v>
       </c>
       <c r="D10">
-        <v>6.222363728592483</v>
+        <v>6.257719344677161</v>
       </c>
       <c r="E10">
-        <v>7.675869272259324</v>
+        <v>7.564340996047402</v>
       </c>
       <c r="F10">
-        <v>21.8803164692691</v>
+        <v>21.25059209423265</v>
       </c>
       <c r="G10">
-        <v>25.37659847194312</v>
+        <v>24.76973122082233</v>
       </c>
       <c r="I10">
-        <v>3.038848199304954</v>
+        <v>3.036923036621859</v>
       </c>
       <c r="J10">
-        <v>9.021921958692715</v>
+        <v>9.061782600443481</v>
       </c>
       <c r="K10">
-        <v>13.65268882845244</v>
+        <v>13.16621593843193</v>
       </c>
       <c r="L10">
-        <v>5.520377564273129</v>
+        <v>11.1472335347585</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.502358480419293</v>
       </c>
       <c r="N10">
-        <v>8.162656277388432</v>
+        <v>5.466936159215625</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.48072868583112</v>
+        <v>8.312955492500073</v>
       </c>
       <c r="Q10">
-        <v>15.33236074758838</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.60934317932278</v>
+      </c>
+      <c r="S10">
+        <v>14.86524816993603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.12759722594823</v>
+        <v>24.65426408086303</v>
       </c>
       <c r="C11">
-        <v>13.99460921490465</v>
+        <v>14.32408639330622</v>
       </c>
       <c r="D11">
-        <v>6.314930189457156</v>
+        <v>6.385016115853126</v>
       </c>
       <c r="E11">
-        <v>7.673237383133567</v>
+        <v>7.572482540887875</v>
       </c>
       <c r="F11">
-        <v>22.14609891663421</v>
+        <v>21.35073041773163</v>
       </c>
       <c r="G11">
-        <v>25.8143328207547</v>
+        <v>26.20659631796095</v>
       </c>
       <c r="I11">
-        <v>3.160076902421929</v>
+        <v>3.143170256205924</v>
       </c>
       <c r="J11">
-        <v>9.031787497297788</v>
+        <v>8.638916611770799</v>
       </c>
       <c r="K11">
-        <v>13.57304882060064</v>
+        <v>13.01214010322474</v>
       </c>
       <c r="L11">
-        <v>5.489895879277227</v>
+        <v>10.97810868398964</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.509791345709356</v>
       </c>
       <c r="N11">
-        <v>8.335354070457415</v>
+        <v>5.438284644916297</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.46929489131572</v>
+        <v>8.486051216062391</v>
       </c>
       <c r="Q11">
-        <v>15.44328093533079</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.64361970389633</v>
+      </c>
+      <c r="S11">
+        <v>14.84220267678938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.44181483279063</v>
+        <v>24.93292675620243</v>
       </c>
       <c r="C12">
-        <v>14.12306109607677</v>
+        <v>14.43797861928746</v>
       </c>
       <c r="D12">
-        <v>6.34924136185579</v>
+        <v>6.435727572158338</v>
       </c>
       <c r="E12">
-        <v>7.674623529671683</v>
+        <v>7.579496564992977</v>
       </c>
       <c r="F12">
-        <v>22.2623775944472</v>
+        <v>21.39125321643403</v>
       </c>
       <c r="G12">
-        <v>26.00539004861605</v>
+        <v>26.87588337292293</v>
       </c>
       <c r="I12">
-        <v>3.203141504716357</v>
+        <v>3.179328437940474</v>
       </c>
       <c r="J12">
-        <v>9.040608683026305</v>
+        <v>8.451733329638902</v>
       </c>
       <c r="K12">
-        <v>13.55498365697866</v>
+        <v>12.95919429355137</v>
       </c>
       <c r="L12">
-        <v>5.47909196783483</v>
+        <v>10.91834032888398</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.519241804681364</v>
       </c>
       <c r="N12">
-        <v>8.396782981565307</v>
+        <v>5.428139081096994</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.46209715304139</v>
+        <v>8.546815774107252</v>
       </c>
       <c r="Q12">
-        <v>15.49733775672968</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.65588714933727</v>
+      </c>
+      <c r="S12">
+        <v>14.8343448856857</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.37638139975685</v>
+        <v>24.8753640560108</v>
       </c>
       <c r="C13">
-        <v>14.09246938729725</v>
+        <v>14.41069935962531</v>
       </c>
       <c r="D13">
-        <v>6.341695639458572</v>
+        <v>6.424497318771732</v>
       </c>
       <c r="E13">
-        <v>7.674698241092742</v>
+        <v>7.578286723731963</v>
       </c>
       <c r="F13">
-        <v>22.24014538323187</v>
+        <v>21.38591701579364</v>
       </c>
       <c r="G13">
-        <v>25.96906576507935</v>
+        <v>26.73225265990001</v>
       </c>
       <c r="I13">
-        <v>3.193330603444284</v>
+        <v>3.170813843027207</v>
       </c>
       <c r="J13">
-        <v>9.039548063164876</v>
+        <v>8.493870080166902</v>
       </c>
       <c r="K13">
-        <v>13.56099618051736</v>
+        <v>12.97286734575722</v>
       </c>
       <c r="L13">
-        <v>5.481539340382914</v>
+        <v>10.93263985693201</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.519187738255207</v>
       </c>
       <c r="N13">
-        <v>8.38284781599326</v>
+        <v>5.430432000298858</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.462904896739</v>
+        <v>8.533051513182246</v>
       </c>
       <c r="Q13">
-        <v>15.48778320441352</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.65232238638484</v>
+      </c>
+      <c r="S13">
+        <v>14.83860190267889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.1544143967409</v>
+        <v>24.67825216395683</v>
       </c>
       <c r="C14">
-        <v>14.00392815093411</v>
+        <v>14.33228904389829</v>
       </c>
       <c r="D14">
-        <v>6.317686268580363</v>
+        <v>6.389053165553199</v>
       </c>
       <c r="E14">
-        <v>7.673509583536632</v>
+        <v>7.57318522997423</v>
       </c>
       <c r="F14">
-        <v>22.15686212231471</v>
+        <v>21.35552296910081</v>
       </c>
       <c r="G14">
-        <v>25.83210963942018</v>
+        <v>26.26177309906937</v>
       </c>
       <c r="I14">
-        <v>3.163383888533952</v>
+        <v>3.145827048578543</v>
       </c>
       <c r="J14">
-        <v>9.032869248343731</v>
+        <v>8.624357548798315</v>
       </c>
       <c r="K14">
-        <v>13.57246204263122</v>
+        <v>13.00875602353221</v>
       </c>
       <c r="L14">
-        <v>5.489058190496067</v>
+        <v>10.9738086562604</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.511409619481446</v>
       </c>
       <c r="N14">
-        <v>8.340106851632781</v>
+        <v>5.437495784291115</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.46838774735892</v>
+        <v>8.490761937621459</v>
       </c>
       <c r="Q14">
-        <v>15.44861585024436</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.64423571983792</v>
+      </c>
+      <c r="S14">
+        <v>14.84265972687643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.01366382846373</v>
+        <v>24.55211170661254</v>
       </c>
       <c r="C15">
-        <v>13.95544686984652</v>
+        <v>14.28938211915786</v>
       </c>
       <c r="D15">
-        <v>6.303291870693194</v>
+        <v>6.368093880984127</v>
       </c>
       <c r="E15">
-        <v>7.672064038276173</v>
+        <v>7.569553322559784</v>
       </c>
       <c r="F15">
-        <v>22.100325923589</v>
+        <v>21.32967687805873</v>
       </c>
       <c r="G15">
-        <v>25.73865817541261</v>
+        <v>25.97676349835152</v>
       </c>
       <c r="I15">
-        <v>3.1461941139426</v>
+        <v>3.132057309134978</v>
       </c>
       <c r="J15">
-        <v>9.027154006855524</v>
+        <v>8.69921112413026</v>
       </c>
       <c r="K15">
-        <v>13.57536707354228</v>
+        <v>13.02604140253956</v>
       </c>
       <c r="L15">
-        <v>5.493430446381026</v>
+        <v>10.99603503942231</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.502667192849831</v>
       </c>
       <c r="N15">
-        <v>8.315317841861967</v>
+        <v>5.441614626576585</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.4732249053072</v>
+        <v>8.466162147195782</v>
       </c>
       <c r="Q15">
-        <v>15.42054843676292</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.64121257942439</v>
+      </c>
+      <c r="S15">
+        <v>14.83964631467645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.21597242048759</v>
+        <v>23.82925652860246</v>
       </c>
       <c r="C16">
-        <v>13.63597682068773</v>
+        <v>13.98615257505837</v>
       </c>
       <c r="D16">
-        <v>6.218944155667687</v>
+        <v>6.252536571070455</v>
       </c>
       <c r="E16">
-        <v>7.669573420424965</v>
+        <v>7.557569721714823</v>
       </c>
       <c r="F16">
-        <v>21.81479992423357</v>
+        <v>21.19411105866071</v>
       </c>
       <c r="G16">
-        <v>25.26564750058115</v>
+        <v>24.60503584276756</v>
       </c>
       <c r="I16">
-        <v>3.039889416562759</v>
+        <v>3.042132649166783</v>
       </c>
       <c r="J16">
-        <v>9.006841836053022</v>
+        <v>9.071344683109029</v>
       </c>
       <c r="K16">
-        <v>13.62197165820706</v>
+        <v>13.1412734422103</v>
       </c>
       <c r="L16">
-        <v>5.520286482502174</v>
+        <v>11.13465974719091</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.47136450994523</v>
       </c>
       <c r="N16">
-        <v>8.163589769180913</v>
+        <v>5.466907588690133</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.49318119508451</v>
+        <v>8.313892933444297</v>
       </c>
       <c r="Q16">
-        <v>15.28928136075151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.62009491000257</v>
+      </c>
+      <c r="S16">
+        <v>14.8296689034941</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.71310001666333</v>
+        <v>23.36414903849107</v>
       </c>
       <c r="C17">
-        <v>13.436634739174</v>
+        <v>13.78415535464119</v>
       </c>
       <c r="D17">
-        <v>6.167297235087935</v>
+        <v>6.187322334251524</v>
       </c>
       <c r="E17">
-        <v>7.668825706705711</v>
+        <v>7.553516470534904</v>
       </c>
       <c r="F17">
-        <v>21.64196169208666</v>
+        <v>21.09082417905526</v>
       </c>
       <c r="G17">
-        <v>24.97699586987787</v>
+        <v>23.93785745438819</v>
       </c>
       <c r="I17">
-        <v>2.97425504627546</v>
+        <v>2.985945273094168</v>
       </c>
       <c r="J17">
-        <v>8.995720454231318</v>
+        <v>9.233636920537846</v>
       </c>
       <c r="K17">
-        <v>13.65292946364626</v>
+        <v>13.20398199507003</v>
       </c>
       <c r="L17">
-        <v>5.536968836201297</v>
+        <v>11.21476975137856</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.449071022529999</v>
       </c>
       <c r="N17">
-        <v>8.069991589053439</v>
+        <v>5.482642421705767</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.50642385140284</v>
+        <v>8.218646643944021</v>
       </c>
       <c r="Q17">
-        <v>15.21115224771644</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.61215804278416</v>
+      </c>
+      <c r="S17">
+        <v>14.80698444020136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.4291361306856</v>
+        <v>23.09897189365313</v>
       </c>
       <c r="C18">
-        <v>13.30485189035797</v>
+        <v>13.64535624864083</v>
       </c>
       <c r="D18">
-        <v>6.136829065282186</v>
+        <v>6.151008495437443</v>
       </c>
       <c r="E18">
-        <v>7.670658855457164</v>
+        <v>7.554291512190985</v>
       </c>
       <c r="F18">
-        <v>21.55823794443219</v>
+        <v>21.03913841711505</v>
       </c>
       <c r="G18">
-        <v>24.83699165836236</v>
+        <v>23.64269045498954</v>
       </c>
       <c r="I18">
-        <v>2.932594424087752</v>
+        <v>2.948314968813299</v>
       </c>
       <c r="J18">
-        <v>8.994221623341563</v>
+        <v>9.305135556659911</v>
       </c>
       <c r="K18">
-        <v>13.6824709836127</v>
+        <v>13.24774108963307</v>
       </c>
       <c r="L18">
-        <v>5.547279270024204</v>
+        <v>11.2663255541635</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.444372256382829</v>
       </c>
       <c r="N18">
-        <v>8.012192910408618</v>
+        <v>5.492354602161886</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.51092863631869</v>
+        <v>8.15939312021964</v>
       </c>
       <c r="Q18">
-        <v>15.17808674781624</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.60559012030953</v>
+      </c>
+      <c r="S18">
+        <v>14.79906239413531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.32423568826759</v>
+        <v>22.9998528798216</v>
       </c>
       <c r="C19">
-        <v>13.27226955036039</v>
+        <v>13.61023164038204</v>
       </c>
       <c r="D19">
-        <v>6.127143534199223</v>
+        <v>6.139690777547877</v>
       </c>
       <c r="E19">
-        <v>7.669800965118386</v>
+        <v>7.553224686623001</v>
       </c>
       <c r="F19">
-        <v>21.51862570599809</v>
+        <v>21.00900167629644</v>
       </c>
       <c r="G19">
-        <v>24.77012171833961</v>
+        <v>23.53330945425699</v>
       </c>
       <c r="I19">
-        <v>2.921265559045472</v>
+        <v>2.939189429279562</v>
       </c>
       <c r="J19">
-        <v>8.990392505419813</v>
+        <v>9.321536071476686</v>
       </c>
       <c r="K19">
-        <v>13.68421391800017</v>
+        <v>13.25404426129617</v>
       </c>
       <c r="L19">
-        <v>5.550291081145785</v>
+        <v>11.27780994707969</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.435772157231936</v>
       </c>
       <c r="N19">
-        <v>7.995513578774063</v>
+        <v>5.495203503227172</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.51519544898156</v>
+        <v>8.142176462505944</v>
       </c>
       <c r="Q19">
-        <v>15.15856702869007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.60654180238146</v>
+      </c>
+      <c r="S19">
+        <v>14.78696266980328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.76794279902219</v>
+        <v>23.41528916843946</v>
       </c>
       <c r="C20">
-        <v>13.45674390963796</v>
+        <v>13.80496660032215</v>
       </c>
       <c r="D20">
-        <v>6.172727718439049</v>
+        <v>6.193989357887046</v>
       </c>
       <c r="E20">
-        <v>7.669031189876925</v>
+        <v>7.553983057850071</v>
       </c>
       <c r="F20">
-        <v>21.6614278336184</v>
+        <v>21.10372177980533</v>
       </c>
       <c r="G20">
-        <v>25.00964233245613</v>
+        <v>24.0043942476557</v>
       </c>
       <c r="I20">
-        <v>2.980960455853896</v>
+        <v>2.991576764234392</v>
       </c>
       <c r="J20">
-        <v>8.997200108133386</v>
+        <v>9.21935939735161</v>
       </c>
       <c r="K20">
-        <v>13.6504010617064</v>
+        <v>13.19841375481418</v>
       </c>
       <c r="L20">
-        <v>5.535235011174789</v>
+        <v>11.20699987625916</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.452243072921247</v>
       </c>
       <c r="N20">
-        <v>8.079678513691551</v>
+        <v>5.481005317504427</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.50470234669018</v>
+        <v>8.228554161624336</v>
       </c>
       <c r="Q20">
-        <v>15.2202383160318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.61252477817619</v>
+      </c>
+      <c r="S20">
+        <v>14.81086428797713</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.2090896368723</v>
+        <v>24.71063167560503</v>
       </c>
       <c r="C21">
-        <v>14.04693258682205</v>
+        <v>14.35257419516164</v>
       </c>
       <c r="D21">
-        <v>6.325608002931483</v>
+        <v>6.409578697906269</v>
       </c>
       <c r="E21">
-        <v>7.671645000966862</v>
+        <v>7.576514612626332</v>
       </c>
       <c r="F21">
-        <v>22.16520261721691</v>
+        <v>21.31183462724434</v>
       </c>
       <c r="G21">
-        <v>25.84502981493649</v>
+        <v>26.66145372829811</v>
       </c>
       <c r="I21">
-        <v>3.17558229272671</v>
+        <v>3.156465689370329</v>
       </c>
       <c r="J21">
-        <v>9.029916030812609</v>
+        <v>8.470966150045246</v>
       </c>
       <c r="K21">
-        <v>13.55684165731134</v>
+        <v>12.97125569363533</v>
       </c>
       <c r="L21">
-        <v>5.48614298196801</v>
+        <v>10.94422539971805</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.489218035376135</v>
       </c>
       <c r="N21">
-        <v>8.356720375134289</v>
+        <v>5.434815305709719</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.47076272174036</v>
+        <v>8.505210745567602</v>
       </c>
       <c r="Q21">
-        <v>15.44803787495245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.65705474944256</v>
+      </c>
+      <c r="S21">
+        <v>14.79923248427808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.12059528059058</v>
+        <v>25.52548478952789</v>
       </c>
       <c r="C22">
-        <v>14.40003411326922</v>
+        <v>14.67051787996033</v>
       </c>
       <c r="D22">
-        <v>6.424629920006715</v>
+        <v>6.553293303215685</v>
       </c>
       <c r="E22">
-        <v>7.678743995488555</v>
+        <v>7.599067963838475</v>
       </c>
       <c r="F22">
-        <v>22.52222812243922</v>
+        <v>21.46033346589722</v>
       </c>
       <c r="G22">
-        <v>26.43006935173521</v>
+        <v>28.53345986994742</v>
       </c>
       <c r="I22">
-        <v>3.296964594721887</v>
+        <v>3.257410567748332</v>
       </c>
       <c r="J22">
-        <v>9.061997752384151</v>
+        <v>8.00319590869791</v>
       </c>
       <c r="K22">
-        <v>13.51926037551473</v>
+        <v>12.83487670925654</v>
       </c>
       <c r="L22">
-        <v>5.455621999507089</v>
+        <v>10.78324596262904</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.536075142445402</v>
       </c>
       <c r="N22">
-        <v>8.530755983703239</v>
+        <v>5.406169671453103</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.44686268944964</v>
+        <v>8.677867064352965</v>
       </c>
       <c r="Q22">
-        <v>15.6200925741119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.68812339646525</v>
+      </c>
+      <c r="S22">
+        <v>14.80013544025006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.65091358373845</v>
+        <v>25.11788416627269</v>
       </c>
       <c r="C23">
-        <v>14.19232964055895</v>
+        <v>14.49538412397048</v>
       </c>
       <c r="D23">
-        <v>6.370726408711472</v>
+        <v>6.468717538931737</v>
       </c>
       <c r="E23">
-        <v>7.677366553848916</v>
+        <v>7.586340397220154</v>
       </c>
       <c r="F23">
-        <v>22.35032882141444</v>
+        <v>21.4265458395131</v>
       </c>
       <c r="G23">
-        <v>26.15014813620595</v>
+        <v>27.35787733524506</v>
       </c>
       <c r="I23">
-        <v>3.228651378181223</v>
+        <v>3.199454701865624</v>
       </c>
       <c r="J23">
-        <v>9.050349032133539</v>
+        <v>8.327014209580192</v>
       </c>
       <c r="K23">
-        <v>13.55329719372035</v>
+        <v>12.9325655835959</v>
       </c>
       <c r="L23">
-        <v>5.472698218932468</v>
+        <v>10.88471880502486</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>8.532783246822621</v>
       </c>
       <c r="N23">
-        <v>8.433209432439741</v>
+        <v>5.422127845767275</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>12.45446034765965</v>
+        <v>8.58255919910788</v>
       </c>
       <c r="Q23">
-        <v>15.54201540215645</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.66122634195336</v>
+      </c>
+      <c r="S23">
+        <v>14.83573765098592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.76462689828119</v>
+        <v>23.41381946203047</v>
       </c>
       <c r="C24">
-        <v>13.41429016483442</v>
+        <v>13.76050799756477</v>
       </c>
       <c r="D24">
-        <v>6.168574702662881</v>
+        <v>6.189231457248227</v>
       </c>
       <c r="E24">
-        <v>7.673124964298923</v>
+        <v>7.557934206721962</v>
       </c>
       <c r="F24">
-        <v>21.68383292816844</v>
+        <v>21.12916710280316</v>
       </c>
       <c r="G24">
-        <v>25.04830778636998</v>
+        <v>24.02882967937288</v>
       </c>
       <c r="I24">
-        <v>2.971064228451727</v>
+        <v>2.979900257750892</v>
       </c>
       <c r="J24">
-        <v>9.005862362651397</v>
+        <v>9.23466981399033</v>
       </c>
       <c r="K24">
-        <v>13.67462666869304</v>
+        <v>13.22302789327877</v>
       </c>
       <c r="L24">
-        <v>5.537367794206525</v>
+        <v>11.22582229028726</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.469907182528919</v>
       </c>
       <c r="N24">
-        <v>8.067341950223886</v>
+        <v>5.482982040588285</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.49809578156587</v>
+        <v>8.216029931670436</v>
       </c>
       <c r="Q24">
-        <v>15.23932525292921</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.60438778446091</v>
+      </c>
+      <c r="S24">
+        <v>14.83221360864691</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.54210201317225</v>
+        <v>21.27432295955363</v>
       </c>
       <c r="C25">
-        <v>12.52494074320985</v>
+        <v>12.7426165576638</v>
       </c>
       <c r="D25">
-        <v>5.952218042742842</v>
+        <v>5.963190987027917</v>
       </c>
       <c r="E25">
-        <v>7.679543001697978</v>
+        <v>7.570076774622568</v>
       </c>
       <c r="F25">
-        <v>21.00087648503289</v>
+        <v>20.54640809666286</v>
       </c>
       <c r="G25">
-        <v>23.88852914710258</v>
+        <v>22.77685923507417</v>
       </c>
       <c r="I25">
-        <v>2.684038373583418</v>
+        <v>2.724576787796126</v>
       </c>
       <c r="J25">
-        <v>8.976736545469649</v>
+        <v>9.271154334923496</v>
       </c>
       <c r="K25">
-        <v>13.83841142612706</v>
+        <v>13.43561465134836</v>
       </c>
       <c r="L25">
-        <v>5.61015331926186</v>
+        <v>11.52568077346509</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.376036244054603</v>
       </c>
       <c r="N25">
-        <v>7.66549978438848</v>
+        <v>5.55161876162733</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.5588670451675</v>
+        <v>7.796198840734622</v>
       </c>
       <c r="Q25">
-        <v>14.94780492331795</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.60741943522915</v>
+      </c>
+      <c r="S25">
+        <v>14.61402072700216</v>
       </c>
     </row>
   </sheetData>
